--- a/IBK/excel/gt_bl.xlsx
+++ b/IBK/excel/gt_bl.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\OCR\2019.6.19_Evaluation\fileCompare_bl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
@@ -2905,7 +2900,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2934,6 +2929,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2972,7 +2975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2995,6 +2998,9 @@
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3269,7 +3275,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3280,8 +3286,8 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3684,38 +3690,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="8" t="s">
         <v>85</v>
       </c>
     </row>
